--- a/Market trand prediction/Dow.xlsx
+++ b/Market trand prediction/Dow.xlsx
@@ -1,50 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\HTTQD\Hệ hỗ trợ git\H-h-tr-quy-t-nh\Market trand prediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6667CC-A338-4C1E-ABA3-1A35384B11E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="43080" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Open</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>High</t>
+    <t>OpenDOW</t>
   </si>
   <si>
-    <t>Low</t>
+    <t>HighDOW</t>
   </si>
   <si>
-    <t>Close</t>
+    <t>LowDOW</t>
   </si>
   <si>
-    <t>Adj Close</t>
+    <t>CloseDOW</t>
   </si>
   <si>
-    <t>Volume</t>
+    <t>Adj Close DOW</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Volume DOW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +116,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,7 +168,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -188,6 +202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,9 +237,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,37 +413,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>45293</v>
       </c>
@@ -450,7 +468,7 @@
         <v>350280000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>45294</v>
       </c>
@@ -473,7 +491,7 @@
         <v>322010000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>45295</v>
       </c>
@@ -496,7 +514,7 @@
         <v>380220000</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>45296</v>
       </c>
@@ -519,7 +537,7 @@
         <v>299480000</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>45299</v>
       </c>
@@ -542,7 +560,7 @@
         <v>362200000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>45300</v>
       </c>
@@ -565,7 +583,7 @@
         <v>289860000</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>45301</v>
       </c>
@@ -588,7 +606,7 @@
         <v>279540000</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>45302</v>
       </c>
@@ -611,7 +629,7 @@
         <v>299540000</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>45303</v>
       </c>
@@ -634,7 +652,7 @@
         <v>279250000</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>45307</v>
       </c>
@@ -657,7 +675,7 @@
         <v>378280000</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>45308</v>
       </c>
@@ -680,7 +698,7 @@
         <v>290880000</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>45309</v>
       </c>
@@ -703,7 +721,7 @@
         <v>340620000</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>45310</v>
       </c>
@@ -726,7 +744,7 @@
         <v>377650000</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>45313</v>
       </c>
@@ -749,7 +767,7 @@
         <v>339560000</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>45314</v>
       </c>
@@ -772,7 +790,7 @@
         <v>334110000</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>45315</v>
       </c>
@@ -795,7 +813,7 @@
         <v>336090000</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>45316</v>
       </c>
@@ -818,7 +836,7 @@
         <v>402970000</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>45317</v>
       </c>
@@ -841,7 +859,7 @@
         <v>387000000</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>45320</v>
       </c>
@@ -864,7 +882,7 @@
         <v>312480000</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>45321</v>
       </c>
@@ -887,7 +905,7 @@
         <v>326640000</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>45322</v>
       </c>
@@ -910,7 +928,7 @@
         <v>453250000</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>45323</v>
       </c>
@@ -933,7 +951,7 @@
         <v>321830000</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>45324</v>
       </c>
@@ -956,7 +974,7 @@
         <v>379760000</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>45327</v>
       </c>
@@ -979,7 +997,7 @@
         <v>322290000</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>45328</v>
       </c>
@@ -1002,7 +1020,7 @@
         <v>276140000</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>45329</v>
       </c>
@@ -1025,7 +1043,7 @@
         <v>302210000</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>45330</v>
       </c>
@@ -1048,7 +1066,7 @@
         <v>315510000</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>45331</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>299970000</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>45334</v>
       </c>
@@ -1094,7 +1112,7 @@
         <v>273020000</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>45335</v>
       </c>
@@ -1117,7 +1135,7 @@
         <v>318390000</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>45336</v>
       </c>
@@ -1140,7 +1158,7 @@
         <v>274610000</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>45337</v>
       </c>
@@ -1163,7 +1181,7 @@
         <v>303840000</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>45338</v>
       </c>
@@ -1186,7 +1204,7 @@
         <v>282210000</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>45342</v>
       </c>
@@ -1209,7 +1227,7 @@
         <v>335990000</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>45343</v>
       </c>
@@ -1232,7 +1250,7 @@
         <v>279510000</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>45344</v>
       </c>
@@ -1255,7 +1273,7 @@
         <v>324630000</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>45345</v>
       </c>
@@ -1278,7 +1296,7 @@
         <v>286910000</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>45348</v>
       </c>
@@ -1301,7 +1319,7 @@
         <v>296930000</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>45349</v>
       </c>
@@ -1324,7 +1342,7 @@
         <v>272860000</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>45350</v>
       </c>
@@ -1347,7 +1365,7 @@
         <v>272560000</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>45351</v>
       </c>
@@ -1370,7 +1388,7 @@
         <v>519690000</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>45352</v>
       </c>
@@ -1393,7 +1411,7 @@
         <v>331030000</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>45355</v>
       </c>
@@ -1416,7 +1434,7 @@
         <v>386290000</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>45356</v>
       </c>
@@ -1439,7 +1457,7 @@
         <v>393750000</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>45357</v>
       </c>
@@ -1462,7 +1480,7 @@
         <v>347900000</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>45358</v>
       </c>
@@ -1485,7 +1503,7 @@
         <v>335580000</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>45359</v>
       </c>
@@ -1508,7 +1526,7 @@
         <v>342030000</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>45362</v>
       </c>
@@ -1531,7 +1549,7 @@
         <v>300190000</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>45363</v>
       </c>
@@ -1554,7 +1572,7 @@
         <v>329090000</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>45364</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>330930000</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>45365</v>
       </c>
@@ -1600,7 +1618,7 @@
         <v>375810000</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>45366</v>
       </c>
@@ -1623,7 +1641,7 @@
         <v>774360000</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>45369</v>
       </c>
@@ -1646,7 +1664,7 @@
         <v>327950000</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>45370</v>
       </c>
@@ -1669,7 +1687,7 @@
         <v>310610000</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>45371</v>
       </c>
@@ -1692,7 +1710,7 @@
         <v>350050000</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>45372</v>
       </c>
@@ -1715,7 +1733,7 @@
         <v>408990000</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>45373</v>
       </c>
@@ -1738,7 +1756,7 @@
         <v>332340000</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>45376</v>
       </c>
@@ -1761,7 +1779,7 @@
         <v>323670000</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>45377</v>
       </c>
@@ -1784,7 +1802,7 @@
         <v>306940000</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>45378</v>
       </c>
@@ -1807,7 +1825,7 @@
         <v>332190000</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>45379</v>
       </c>
@@ -1830,7 +1848,7 @@
         <v>360970000</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
         <v>45383</v>
       </c>
@@ -1853,7 +1871,7 @@
         <v>269470000</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>45384</v>
       </c>
@@ -1876,7 +1894,7 @@
         <v>319590000</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>45385</v>
       </c>
@@ -1899,7 +1917,7 @@
         <v>364180000</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>45386</v>
       </c>
@@ -1922,7 +1940,7 @@
         <v>356510000</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>45387</v>
       </c>
@@ -1945,7 +1963,7 @@
         <v>317110000</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>45390</v>
       </c>
@@ -1968,7 +1986,7 @@
         <v>291460000</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="2">
         <v>45391</v>
       </c>
@@ -1991,7 +2009,7 @@
         <v>328700000</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="2">
         <v>45392</v>
       </c>
@@ -2014,7 +2032,7 @@
         <v>317580000</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>45393</v>
       </c>
@@ -2037,7 +2055,7 @@
         <v>356640000</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>45394</v>
       </c>
@@ -2060,7 +2078,7 @@
         <v>440910000</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>45397</v>
       </c>
@@ -2083,7 +2101,7 @@
         <v>389170000</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="2">
         <v>45398</v>
       </c>
@@ -2106,7 +2124,7 @@
         <v>339480000</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="2">
         <v>45399</v>
       </c>
@@ -2129,7 +2147,7 @@
         <v>314650000</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
         <v>45400</v>
       </c>
@@ -2152,7 +2170,7 @@
         <v>300230000</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>45401</v>
       </c>
@@ -2175,7 +2193,7 @@
         <v>420460000</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>45404</v>
       </c>
@@ -2198,7 +2216,7 @@
         <v>351650000</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>45405</v>
       </c>
@@ -2221,7 +2239,7 @@
         <v>329420000</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="2">
         <v>45406</v>
       </c>
@@ -2244,7 +2262,7 @@
         <v>337230000</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="2">
         <v>45407</v>
       </c>
@@ -2267,7 +2285,7 @@
         <v>408170000</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="2">
         <v>45408</v>
       </c>
@@ -2290,7 +2308,7 @@
         <v>398680000</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="2">
         <v>45411</v>
       </c>
@@ -2313,7 +2331,7 @@
         <v>343630000</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>45412</v>
       </c>
@@ -2336,7 +2354,7 @@
         <v>448480000</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>45413</v>
       </c>
@@ -2359,7 +2377,7 @@
         <v>413540000</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>45414</v>
       </c>
@@ -2382,7 +2400,7 @@
         <v>355910000</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="2">
         <v>45415</v>
       </c>
@@ -2405,7 +2423,7 @@
         <v>410530000</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="2">
         <v>45418</v>
       </c>
@@ -2428,7 +2446,7 @@
         <v>315550000</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="2">
         <v>45419</v>
       </c>
@@ -2451,7 +2469,7 @@
         <v>360930000</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>45420</v>
       </c>
@@ -2474,7 +2492,7 @@
         <v>292340000</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>45421</v>
       </c>
@@ -2497,7 +2515,7 @@
         <v>303270000</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>45422</v>
       </c>
@@ -2520,7 +2538,7 @@
         <v>289480000</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="2">
         <v>45425</v>
       </c>
@@ -2543,7 +2561,7 @@
         <v>323370000</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="2">
         <v>45426</v>
       </c>
@@ -2566,7 +2584,7 @@
         <v>320860000</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="2">
         <v>45427</v>
       </c>
@@ -2589,7 +2607,7 @@
         <v>411190000</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>45428</v>
       </c>
@@ -2612,7 +2630,7 @@
         <v>400560000</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>45429</v>
       </c>
@@ -2635,7 +2653,7 @@
         <v>300260000</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <v>45432</v>
       </c>
@@ -2658,7 +2676,7 @@
         <v>272420000</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <v>45433</v>
       </c>
@@ -2681,7 +2699,7 @@
         <v>314120000</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <v>45434</v>
       </c>
@@ -2704,7 +2722,7 @@
         <v>258430000</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
         <v>45435</v>
       </c>
@@ -2727,7 +2745,7 @@
         <v>335640000</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="2">
         <v>45436</v>
       </c>
@@ -2750,7 +2768,7 @@
         <v>249810000</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>45440</v>
       </c>
@@ -2773,7 +2791,7 @@
         <v>303340000</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>45441</v>
       </c>
@@ -2796,7 +2814,7 @@
         <v>292280000</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>45442</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>360090000</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="2">
         <v>45443</v>
       </c>

--- a/Market trand prediction/Dow.xlsx
+++ b/Market trand prediction/Dow.xlsx
@@ -1,56 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\HTTQD\Hệ hỗ trợ git\H-h-tr-quy-t-nh\Market trand prediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6667CC-A338-4C1E-ABA3-1A35384B11E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Date</t>
+    <t>Open</t>
   </si>
   <si>
-    <t>OpenDOW</t>
+    <t>High</t>
   </si>
   <si>
-    <t>HighDOW</t>
+    <t>Low</t>
   </si>
   <si>
-    <t>LowDOW</t>
+    <t>Close</t>
   </si>
   <si>
-    <t>CloseDOW</t>
+    <t>Adj Close</t>
   </si>
   <si>
-    <t>Adj Close DOW</t>
+    <t>Volume</t>
   </si>
   <si>
-    <t>Volume DOW</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,21 +110,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +154,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -202,7 +188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -237,10 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,39 +397,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>45293</v>
       </c>
@@ -468,7 +450,7 @@
         <v>350280000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>45294</v>
       </c>
@@ -491,7 +473,7 @@
         <v>322010000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>45295</v>
       </c>
@@ -514,7 +496,7 @@
         <v>380220000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>45296</v>
       </c>
@@ -537,7 +519,7 @@
         <v>299480000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>45299</v>
       </c>
@@ -560,7 +542,7 @@
         <v>362200000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>45300</v>
       </c>
@@ -583,7 +565,7 @@
         <v>289860000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>45301</v>
       </c>
@@ -606,7 +588,7 @@
         <v>279540000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>45302</v>
       </c>
@@ -629,7 +611,7 @@
         <v>299540000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>45303</v>
       </c>
@@ -652,7 +634,7 @@
         <v>279250000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>45307</v>
       </c>
@@ -675,7 +657,7 @@
         <v>378280000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>45308</v>
       </c>
@@ -698,7 +680,7 @@
         <v>290880000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>45309</v>
       </c>
@@ -721,7 +703,7 @@
         <v>340620000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>45310</v>
       </c>
@@ -744,7 +726,7 @@
         <v>377650000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>45313</v>
       </c>
@@ -767,7 +749,7 @@
         <v>339560000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>45314</v>
       </c>
@@ -790,7 +772,7 @@
         <v>334110000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>45315</v>
       </c>
@@ -813,7 +795,7 @@
         <v>336090000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>45316</v>
       </c>
@@ -836,7 +818,7 @@
         <v>402970000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>45317</v>
       </c>
@@ -859,7 +841,7 @@
         <v>387000000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>45320</v>
       </c>
@@ -882,7 +864,7 @@
         <v>312480000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>45321</v>
       </c>
@@ -905,7 +887,7 @@
         <v>326640000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>45322</v>
       </c>
@@ -928,7 +910,7 @@
         <v>453250000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>45323</v>
       </c>
@@ -951,7 +933,7 @@
         <v>321830000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>45324</v>
       </c>
@@ -974,7 +956,7 @@
         <v>379760000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>45327</v>
       </c>
@@ -997,7 +979,7 @@
         <v>322290000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>45328</v>
       </c>
@@ -1020,7 +1002,7 @@
         <v>276140000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>45329</v>
       </c>
@@ -1043,7 +1025,7 @@
         <v>302210000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>45330</v>
       </c>
@@ -1066,7 +1048,7 @@
         <v>315510000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>45331</v>
       </c>
@@ -1089,7 +1071,7 @@
         <v>299970000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>45334</v>
       </c>
@@ -1112,7 +1094,7 @@
         <v>273020000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>45335</v>
       </c>
@@ -1135,7 +1117,7 @@
         <v>318390000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>45336</v>
       </c>
@@ -1158,7 +1140,7 @@
         <v>274610000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>45337</v>
       </c>
@@ -1181,7 +1163,7 @@
         <v>303840000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>45338</v>
       </c>
@@ -1204,7 +1186,7 @@
         <v>282210000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>45342</v>
       </c>
@@ -1227,7 +1209,7 @@
         <v>335990000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>45343</v>
       </c>
@@ -1250,7 +1232,7 @@
         <v>279510000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>45344</v>
       </c>
@@ -1273,7 +1255,7 @@
         <v>324630000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>45345</v>
       </c>
@@ -1296,7 +1278,7 @@
         <v>286910000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>45348</v>
       </c>
@@ -1319,7 +1301,7 @@
         <v>296930000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>45349</v>
       </c>
@@ -1342,7 +1324,7 @@
         <v>272860000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>45350</v>
       </c>
@@ -1365,7 +1347,7 @@
         <v>272560000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>45351</v>
       </c>
@@ -1388,7 +1370,7 @@
         <v>519690000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>45352</v>
       </c>
@@ -1411,7 +1393,7 @@
         <v>331030000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>45355</v>
       </c>
@@ -1434,7 +1416,7 @@
         <v>386290000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>45356</v>
       </c>
@@ -1457,7 +1439,7 @@
         <v>393750000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>45357</v>
       </c>
@@ -1480,7 +1462,7 @@
         <v>347900000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>45358</v>
       </c>
@@ -1503,7 +1485,7 @@
         <v>335580000</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>45359</v>
       </c>
@@ -1526,7 +1508,7 @@
         <v>342030000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>45362</v>
       </c>
@@ -1549,7 +1531,7 @@
         <v>300190000</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>45363</v>
       </c>
@@ -1572,7 +1554,7 @@
         <v>329090000</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>45364</v>
       </c>
@@ -1595,7 +1577,7 @@
         <v>330930000</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>45365</v>
       </c>
@@ -1618,7 +1600,7 @@
         <v>375810000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>45366</v>
       </c>
@@ -1641,7 +1623,7 @@
         <v>774360000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>45369</v>
       </c>
@@ -1664,7 +1646,7 @@
         <v>327950000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>45370</v>
       </c>
@@ -1687,7 +1669,7 @@
         <v>310610000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>45371</v>
       </c>
@@ -1710,7 +1692,7 @@
         <v>350050000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>45372</v>
       </c>
@@ -1733,7 +1715,7 @@
         <v>408990000</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>45373</v>
       </c>
@@ -1756,7 +1738,7 @@
         <v>332340000</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>45376</v>
       </c>
@@ -1779,7 +1761,7 @@
         <v>323670000</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>45377</v>
       </c>
@@ -1802,7 +1784,7 @@
         <v>306940000</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>45378</v>
       </c>
@@ -1825,7 +1807,7 @@
         <v>332190000</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>45379</v>
       </c>
@@ -1848,7 +1830,7 @@
         <v>360970000</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>45383</v>
       </c>
@@ -1871,7 +1853,7 @@
         <v>269470000</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>45384</v>
       </c>
@@ -1894,7 +1876,7 @@
         <v>319590000</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>45385</v>
       </c>
@@ -1917,7 +1899,7 @@
         <v>364180000</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>45386</v>
       </c>
@@ -1940,7 +1922,7 @@
         <v>356510000</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>45387</v>
       </c>
@@ -1963,7 +1945,7 @@
         <v>317110000</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>45390</v>
       </c>
@@ -1986,7 +1968,7 @@
         <v>291460000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>45391</v>
       </c>
@@ -2009,7 +1991,7 @@
         <v>328700000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>45392</v>
       </c>
@@ -2032,7 +2014,7 @@
         <v>317580000</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>45393</v>
       </c>
@@ -2055,7 +2037,7 @@
         <v>356640000</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>45394</v>
       </c>
@@ -2078,7 +2060,7 @@
         <v>440910000</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>45397</v>
       </c>
@@ -2101,7 +2083,7 @@
         <v>389170000</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>45398</v>
       </c>
@@ -2124,7 +2106,7 @@
         <v>339480000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>45399</v>
       </c>
@@ -2147,7 +2129,7 @@
         <v>314650000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>45400</v>
       </c>
@@ -2170,7 +2152,7 @@
         <v>300230000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>45401</v>
       </c>
@@ -2193,7 +2175,7 @@
         <v>420460000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>45404</v>
       </c>
@@ -2216,7 +2198,7 @@
         <v>351650000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>45405</v>
       </c>
@@ -2239,7 +2221,7 @@
         <v>329420000</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>45406</v>
       </c>
@@ -2262,7 +2244,7 @@
         <v>337230000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7">
       <c r="A81" s="2">
         <v>45407</v>
       </c>
@@ -2285,7 +2267,7 @@
         <v>408170000</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7">
       <c r="A82" s="2">
         <v>45408</v>
       </c>
@@ -2308,7 +2290,7 @@
         <v>398680000</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7">
       <c r="A83" s="2">
         <v>45411</v>
       </c>
@@ -2331,7 +2313,7 @@
         <v>343630000</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7">
       <c r="A84" s="2">
         <v>45412</v>
       </c>
@@ -2354,7 +2336,7 @@
         <v>448480000</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7">
       <c r="A85" s="2">
         <v>45413</v>
       </c>
@@ -2377,7 +2359,7 @@
         <v>413540000</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7">
       <c r="A86" s="2">
         <v>45414</v>
       </c>
@@ -2400,7 +2382,7 @@
         <v>355910000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7">
       <c r="A87" s="2">
         <v>45415</v>
       </c>
@@ -2423,7 +2405,7 @@
         <v>410530000</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7">
       <c r="A88" s="2">
         <v>45418</v>
       </c>
@@ -2446,7 +2428,7 @@
         <v>315550000</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7">
       <c r="A89" s="2">
         <v>45419</v>
       </c>
@@ -2469,7 +2451,7 @@
         <v>360930000</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7">
       <c r="A90" s="2">
         <v>45420</v>
       </c>
@@ -2492,7 +2474,7 @@
         <v>292340000</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7">
       <c r="A91" s="2">
         <v>45421</v>
       </c>
@@ -2515,7 +2497,7 @@
         <v>303270000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7">
       <c r="A92" s="2">
         <v>45422</v>
       </c>
@@ -2538,7 +2520,7 @@
         <v>289480000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7">
       <c r="A93" s="2">
         <v>45425</v>
       </c>
@@ -2561,7 +2543,7 @@
         <v>323370000</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7">
       <c r="A94" s="2">
         <v>45426</v>
       </c>
@@ -2584,7 +2566,7 @@
         <v>320860000</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7">
       <c r="A95" s="2">
         <v>45427</v>
       </c>
@@ -2607,7 +2589,7 @@
         <v>411190000</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7">
       <c r="A96" s="2">
         <v>45428</v>
       </c>
@@ -2630,7 +2612,7 @@
         <v>400560000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7">
       <c r="A97" s="2">
         <v>45429</v>
       </c>
@@ -2653,7 +2635,7 @@
         <v>300260000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7">
       <c r="A98" s="2">
         <v>45432</v>
       </c>
@@ -2676,7 +2658,7 @@
         <v>272420000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7">
       <c r="A99" s="2">
         <v>45433</v>
       </c>
@@ -2699,7 +2681,7 @@
         <v>314120000</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7">
       <c r="A100" s="2">
         <v>45434</v>
       </c>
@@ -2722,7 +2704,7 @@
         <v>258430000</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7">
       <c r="A101" s="2">
         <v>45435</v>
       </c>
@@ -2745,7 +2727,7 @@
         <v>335640000</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7">
       <c r="A102" s="2">
         <v>45436</v>
       </c>
@@ -2768,7 +2750,7 @@
         <v>249810000</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7">
       <c r="A103" s="2">
         <v>45440</v>
       </c>
@@ -2791,7 +2773,7 @@
         <v>303340000</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7">
       <c r="A104" s="2">
         <v>45441</v>
       </c>
@@ -2814,7 +2796,7 @@
         <v>292280000</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7">
       <c r="A105" s="2">
         <v>45442</v>
       </c>
@@ -2837,7 +2819,7 @@
         <v>360090000</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7">
       <c r="A106" s="2">
         <v>45443</v>
       </c>
